--- a/UT.Vend.BLL/HelperFiles/Vendor.xlsx
+++ b/UT.Vend.BLL/HelperFiles/Vendor.xlsx
@@ -11,18 +11,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>VendorID</t>
+  </si>
+  <si>
+    <t>VendorName</t>
+  </si>
+  <si>
+    <t>ActiveFlg</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
   <si>
     <t>[VolTeer].[Vend].[tblVendor]</t>
-  </si>
-  <si>
-    <t>VendorID</t>
-  </si>
-  <si>
-    <t>VendorName</t>
-  </si>
-  <si>
-    <t>ActiveFlag</t>
   </si>
   <si>
     <t>6fceed59-06be-45ee-b5e6-9ee7e34ee315</t>
@@ -143,184 +149,217 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="38.57"/>
-    <col min="2" customWidth="1" max="2" width="26.14"/>
+    <col min="1" customWidth="1" max="1" width="25.57"/>
+    <col min="2" customWidth="1" max="2" width="38.57"/>
+    <col min="3" customWidth="1" max="3" width="26.14"/>
+    <col min="5" customWidth="1" max="5" width="149.29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c t="s" r="A1">
         <v>0</v>
       </c>
+      <c t="s" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" r="E1">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c t="s" r="B2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c t="s" r="C2">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <f>RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c t="str" r="E2">
+        <f>((((((((((((("INSERT INTO " &amp; $A$2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ") VALUES('") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp;"')"</f>
+        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('6fceed59-06be-45ee-b5e6-9ee7e34ee315','Google','0')</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c t="s" r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <f>RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-      <c t="str" r="D3">
-        <f>((((((((((((("INSERT INTO " &amp; $A$1) &amp;" (") &amp; $A$2) &amp; ",") &amp; $B$2) &amp; ",") &amp; $C$2) &amp; ") VALUES('") &amp; RC[-3]) &amp;"',") &amp; B3) &amp;"',") &amp; RC[-1]) &amp;"')"</f>
-        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlag) VALUES('6fceed59-06be-45ee-b5e6-9ee7e34ee315',Google',0')</v>
+        <v>8</v>
+      </c>
+      <c t="s" r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f>RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c t="str" r="E3">
+        <f>((((((((((((("INSERT INTO " &amp; $A$2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ") VALUES('") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp;"')"</f>
+        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('861b80c6-e493-4d37-bd2a-92abc6ca4917','SAS','0')</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c t="s" r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <f>RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-      <c t="str" r="D4">
-        <f>((((((((((((("INSERT INTO " &amp; $A$1) &amp;" (") &amp; $A$2) &amp; ",") &amp; $B$2) &amp; ",") &amp; $C$2) &amp; ") VALUES('") &amp; RC[-3]) &amp;"',") &amp; B4) &amp;"',") &amp; RC[-1]) &amp;"')"</f>
-        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlag) VALUES('861b80c6-e493-4d37-bd2a-92abc6ca4917',SAS',1')</v>
+        <v>10</v>
+      </c>
+      <c t="s" r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <f>RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c t="str" r="E4">
+        <f>((((((((((((("INSERT INTO " &amp; $A$2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ") VALUES('") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp;"')"</f>
+        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('d4105a95-db48-4fc0-93fa-0b4099a10713','The Boston Consulting Group','0')</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c t="s" r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <f>RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-      <c t="str" r="D5">
-        <f>((((((((((((("INSERT INTO " &amp; $A$1) &amp;" (") &amp; $A$2) &amp; ",") &amp; $B$2) &amp; ",") &amp; $C$2) &amp; ") VALUES('") &amp; RC[-3]) &amp;"',") &amp; B5) &amp;"',") &amp; RC[-1]) &amp;"')"</f>
-        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlag) VALUES('d4105a95-db48-4fc0-93fa-0b4099a10713',The Boston Consulting Group',0')</v>
+        <v>12</v>
+      </c>
+      <c t="s" r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <f>RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c t="str" r="E5">
+        <f>((((((((((((("INSERT INTO " &amp; $A$2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ") VALUES('") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp;"')"</f>
+        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('e14e476b-54a4-4edd-b922-ba243528f45e','Edward Jones','1')</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c t="s" r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <f>RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-      <c t="str" r="D6">
-        <f>((((((((((((("INSERT INTO " &amp; $A$1) &amp;" (") &amp; $A$2) &amp; ",") &amp; $B$2) &amp; ",") &amp; $C$2) &amp; ") VALUES('") &amp; RC[-3]) &amp;"',") &amp; B6) &amp;"',") &amp; RC[-1]) &amp;"')"</f>
-        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlag) VALUES('e14e476b-54a4-4edd-b922-ba243528f45e',Edward Jones',0')</v>
+        <v>14</v>
+      </c>
+      <c t="s" r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <f>RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c t="str" r="E6">
+        <f>((((((((((((("INSERT INTO " &amp; $A$2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ") VALUES('") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp;"')"</f>
+        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('2091e065-145a-4d94-b471-3eee9b54edbc','Quicken Loans','0')</v>
       </c>
     </row>
     <row r="7">
       <c t="s" r="A7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c t="s" r="B7">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <f>RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-      <c t="str" r="D7">
-        <f>((((((((((((("INSERT INTO " &amp; $A$1) &amp;" (") &amp; $A$2) &amp; ",") &amp; $B$2) &amp; ",") &amp; $C$2) &amp; ") VALUES('") &amp; RC[-3]) &amp;"',") &amp; B7) &amp;"',") &amp; RC[-1]) &amp;"')"</f>
-        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlag) VALUES('2091e065-145a-4d94-b471-3eee9b54edbc',Quicken Loans',0')</v>
+        <v>16</v>
+      </c>
+      <c t="s" r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <f>RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c t="str" r="E7">
+        <f>((((((((((((("INSERT INTO " &amp; $A$2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ") VALUES('") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp;"')"</f>
+        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('48f095ef-981f-4e8f-85b5-cf8d4180192a','Genentech','0')</v>
       </c>
     </row>
     <row r="8">
       <c t="s" r="A8">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c t="s" r="B8">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <f>RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-      <c t="str" r="D8">
-        <f>((((((((((((("INSERT INTO " &amp; $A$1) &amp;" (") &amp; $A$2) &amp; ",") &amp; $B$2) &amp; ",") &amp; $C$2) &amp; ") VALUES('") &amp; RC[-3]) &amp;"',") &amp; B8) &amp;"',") &amp; RC[-1]) &amp;"')"</f>
-        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlag) VALUES('48f095ef-981f-4e8f-85b5-cf8d4180192a',Genentech',0')</v>
+        <v>18</v>
+      </c>
+      <c t="s" s="1" r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <f>RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c t="str" r="E8">
+        <f>((((((((((((("INSERT INTO " &amp; $A$2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ") VALUES('") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp;"')"</f>
+        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('e841c34d-7e18-4911-ab0d-6697d3268ad7','Salesforce.com','1')</v>
       </c>
     </row>
     <row r="9">
       <c t="s" r="A9">
-        <v>16</v>
-      </c>
-      <c t="s" s="1" r="B9">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <f>RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-      <c t="str" r="D9">
-        <f>((((((((((((("INSERT INTO " &amp; $A$1) &amp;" (") &amp; $A$2) &amp; ",") &amp; $B$2) &amp; ",") &amp; $C$2) &amp; ") VALUES('") &amp; RC[-3]) &amp;"',") &amp; B9) &amp;"',") &amp; RC[-1]) &amp;"')"</f>
-        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlag) VALUES('e841c34d-7e18-4911-ab0d-6697d3268ad7',Salesforce.com',1')</v>
+        <v>5</v>
+      </c>
+      <c t="s" r="B9">
+        <v>20</v>
+      </c>
+      <c t="s" r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <f>RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c t="str" r="E9">
+        <f>((((((((((((("INSERT INTO " &amp; $A$2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ") VALUES('") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp;"')"</f>
+        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('3e8b9057-a663-4214-b1b9-1ea921409a5b','Intuit','0')</v>
       </c>
     </row>
     <row r="10">
       <c t="s" r="A10">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c t="s" r="B10">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <f>RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-      <c t="str" r="D10">
-        <f>((((((((((((("INSERT INTO " &amp; $A$1) &amp;" (") &amp; $A$2) &amp; ",") &amp; $B$2) &amp; ",") &amp; $C$2) &amp; ") VALUES('") &amp; RC[-3]) &amp;"',") &amp; B10) &amp;"',") &amp; RC[-1]) &amp;"')"</f>
-        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlag) VALUES('3e8b9057-a663-4214-b1b9-1ea921409a5b',Intuit',0')</v>
+        <v>22</v>
+      </c>
+      <c t="s" r="C10">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <f>RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c t="str" r="E10">
+        <f>((((((((((((("INSERT INTO " &amp; $A$2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ") VALUES('") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp;"')"</f>
+        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('0119527d-b194-445e-a676-8fd3b078d97e','Robert W. Baird &amp; Co.','0')</v>
       </c>
     </row>
     <row r="11">
       <c t="s" r="A11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c t="s" r="B11">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <f>RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-      <c t="str" r="D11">
-        <f>((((((((((((("INSERT INTO " &amp; $A$1) &amp;" (") &amp; $A$2) &amp; ",") &amp; $B$2) &amp; ",") &amp; $C$2) &amp; ") VALUES('") &amp; RC[-3]) &amp;"',") &amp; B11) &amp;"',") &amp; RC[-1]) &amp;"')"</f>
-        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlag) VALUES('0119527d-b194-445e-a676-8fd3b078d97e',Robert W. Baird &amp; Co.',0')</v>
-      </c>
-    </row>
-    <row r="12">
-      <c t="s" r="A12">
-        <v>22</v>
-      </c>
-      <c t="s" r="B12">
-        <v>23</v>
-      </c>
-      <c r="C12">
+        <v>24</v>
+      </c>
+      <c t="s" r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
         <f>RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
-      <c t="str" r="D12">
-        <f>((((((((((((("INSERT INTO " &amp; $A$1) &amp;" (") &amp; $A$2) &amp; ",") &amp; $B$2) &amp; ",") &amp; $C$2) &amp; ") VALUES('") &amp; RC[-3]) &amp;"',") &amp; B12) &amp;"',") &amp; RC[-1]) &amp;"')"</f>
-        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlag) VALUES('055ab305-8df4-47dc-a3db-60f0cb661bcb',DPR Construction',1')</v>
+      <c t="str" r="E11">
+        <f>((((((((((((("INSERT INTO " &amp; $A$2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ") VALUES('") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp;"')"</f>
+        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('055ab305-8df4-47dc-a3db-60f0cb661bcb','DPR Construction','1')</v>
       </c>
     </row>
   </sheetData>

--- a/UT.Vend.BLL/HelperFiles/Vendor.xlsx
+++ b/UT.Vend.BLL/HelperFiles/Vendor.xlsx
@@ -184,11 +184,11 @@
       </c>
       <c r="D2">
         <f>RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="str" r="E2">
         <f>((((((((((((("INSERT INTO " &amp; $A$2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ") VALUES('") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp;"')"</f>
-        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('6fceed59-06be-45ee-b5e6-9ee7e34ee315','Google','0')</v>
+        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('6fceed59-06be-45ee-b5e6-9ee7e34ee315','Google','1')</v>
       </c>
     </row>
     <row r="3">
@@ -203,11 +203,11 @@
       </c>
       <c r="D3">
         <f>RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="str" r="E3">
         <f>((((((((((((("INSERT INTO " &amp; $A$2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ") VALUES('") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp;"')"</f>
-        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('861b80c6-e493-4d37-bd2a-92abc6ca4917','SAS','0')</v>
+        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('861b80c6-e493-4d37-bd2a-92abc6ca4917','SAS','1')</v>
       </c>
     </row>
     <row r="4">
@@ -279,11 +279,11 @@
       </c>
       <c r="D7">
         <f>RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="str" r="E7">
         <f>((((((((((((("INSERT INTO " &amp; $A$2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ") VALUES('") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp;"')"</f>
-        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('48f095ef-981f-4e8f-85b5-cf8d4180192a','Genentech','0')</v>
+        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('48f095ef-981f-4e8f-85b5-cf8d4180192a','Genentech','1')</v>
       </c>
     </row>
     <row r="8">
@@ -298,11 +298,11 @@
       </c>
       <c r="D8">
         <f>RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c t="str" r="E8">
         <f>((((((((((((("INSERT INTO " &amp; $A$2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ") VALUES('") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp;"')"</f>
-        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('e841c34d-7e18-4911-ab0d-6697d3268ad7','Salesforce.com','1')</v>
+        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('e841c34d-7e18-4911-ab0d-6697d3268ad7','Salesforce.com','0')</v>
       </c>
     </row>
     <row r="9">
@@ -317,11 +317,11 @@
       </c>
       <c r="D9">
         <f>RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="str" r="E9">
         <f>((((((((((((("INSERT INTO " &amp; $A$2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ") VALUES('") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp;"')"</f>
-        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('3e8b9057-a663-4214-b1b9-1ea921409a5b','Intuit','0')</v>
+        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('3e8b9057-a663-4214-b1b9-1ea921409a5b','Intuit','1')</v>
       </c>
     </row>
     <row r="10">
@@ -336,11 +336,11 @@
       </c>
       <c r="D10">
         <f>RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="str" r="E10">
         <f>((((((((((((("INSERT INTO " &amp; $A$2) &amp;" (") &amp; $B$1) &amp; ",") &amp; $C$1) &amp; ",") &amp; $D$1) &amp; ") VALUES('") &amp; RC[-3]) &amp;"','") &amp; RC[-2]) &amp;"','") &amp; RC[-1]) &amp;"')"</f>
-        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('0119527d-b194-445e-a676-8fd3b078d97e','Robert W. Baird &amp; Co.','0')</v>
+        <v>INSERT INTO [VolTeer].[Vend].[tblVendor] (VendorID,VendorName,ActiveFlg) VALUES('0119527d-b194-445e-a676-8fd3b078d97e','Robert W. Baird &amp; Co.','1')</v>
       </c>
     </row>
     <row r="11">
